--- a/CleanData/EvaluationNPUAtwo.xlsx
+++ b/CleanData/EvaluationNPUAtwo.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20920" windowHeight="17460" tabRatio="989" activeTab="5"/>
+    <workbookView xWindow="-44060" yWindow="2520" windowWidth="20920" windowHeight="17460" tabRatio="989" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="PreQOld" sheetId="1" r:id="rId1"/>
@@ -36,28 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="38">
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Unuversity Year</t>
-  </si>
-  <si>
-    <t>Faculty</t>
-  </si>
-  <si>
-    <t>Average School  Math.</t>
-  </si>
-  <si>
-    <t>Average Univer. Math.</t>
-  </si>
-  <si>
-    <t>Compare with classmates</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="38">
   <si>
     <t>N1</t>
   </si>
@@ -150,6 +129,27 @@
   </si>
   <si>
     <t>Faculty of Appiied Mathematics and Physics</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>university year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faculty   </t>
+  </si>
+  <si>
+    <t>asm</t>
+  </si>
+  <si>
+    <t>aum</t>
+  </si>
+  <si>
+    <t>cwc</t>
   </si>
 </sst>
 </file>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D23"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -542,106 +542,106 @@
   <sheetData>
     <row r="1" spans="1:42" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="4">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="4"/>
       <c r="AJ1" s="4"/>
@@ -663,7 +663,7 @@
         <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -764,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -865,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -966,7 +966,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -1067,7 +1067,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E6">
         <v>9</v>
@@ -1168,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -1269,7 +1269,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>9</v>
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>9</v>
@@ -1471,7 +1471,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -1572,7 +1572,7 @@
         <v>3</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E11">
         <v>9</v>
@@ -1673,7 +1673,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>9</v>
@@ -1774,7 +1774,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E13">
         <v>7</v>
@@ -1875,7 +1875,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>9</v>
@@ -1976,7 +1976,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>10</v>
@@ -2077,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E16">
         <v>9</v>
@@ -2178,7 +2178,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>9</v>
@@ -2279,7 +2279,7 @@
         <v>3</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>7</v>
@@ -2380,7 +2380,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>9</v>
@@ -2481,7 +2481,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E20">
         <v>10</v>
@@ -2582,7 +2582,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>10</v>
@@ -2683,7 +2683,7 @@
         <v>3</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E22">
         <v>9</v>
@@ -2784,7 +2784,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>8</v>
@@ -2950,114 +2950,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D23"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:37" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
@@ -5416,13 +5416,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -5681,114 +5681,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D25"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:42" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="4"/>
       <c r="AJ1" s="4"/>
@@ -8065,7 +8065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1</v>
       </c>
@@ -8339,114 +8339,114 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D25"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:37" ht="72" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="R1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AC1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="AD1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="AE1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="AF1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AG1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AH1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="AI1" s="5"/>
       <c r="AJ1" s="5"/>
@@ -10718,7 +10718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>1</v>
       </c>
@@ -10821,7 +10821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:34" ht="102" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>1</v>
       </c>
@@ -10994,7 +10994,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C25"/>
     </sheetView>
   </sheetViews>
